--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC86-TORNILLERA 4.5-6.5 ACERO #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC86-TORNILLERA 4.5-6.5 ACERO #1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF031315-9A8A-4004-A8B4-015E1B116629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB9C61E-14DB-41C9-950E-0BC22A8C2BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11835" yWindow="630" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -975,10 +975,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1371,7 +1371,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1442,12 +1442,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1512,7 +1512,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1639,9 +1639,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1679,7 +1679,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1785,7 +1785,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1927,7 +1927,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1940,8 +1940,8 @@
   </sheetPr>
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59:K62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
